--- a/USHPRR/al_poly_grain_info.xlsx
+++ b/USHPRR/al_poly_grain_info.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963ED01A-8997-344A-A9FD-69E102CB4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BA0A3-0029-C449-9914-4E20D549D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16740" yWindow="5380" windowWidth="27240" windowHeight="16440" xr2:uid="{EE52B625-1081-7146-AB4E-A38D6DBE3342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801448F4-0BA7-9D4E-AA8A-E72A2DBD9939}">
   <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,16 +487,16 @@
         <v>404393.385937499</v>
       </c>
       <c r="F4">
-        <f>(D4/8/SQRT(2))^(1/3)</f>
+        <f t="shared" ref="F4:F23" si="0">(D4/8/SQRT(2))^(1/3)</f>
         <v>32.940714855582769</v>
       </c>
       <c r="G4">
-        <f>3*F4</f>
-        <v>98.822144566748307</v>
+        <f>2*SQRT(2)*F4</f>
+        <v>93.170411406060083</v>
       </c>
       <c r="H4">
         <f>G4/10</f>
-        <v>9.8822144566748307</v>
+        <v>9.3170411406060083</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -511,12 +512,12 @@
         <v>40.854023742372142</v>
       </c>
       <c r="P4">
-        <f>3*O4</f>
-        <v>122.56207122711643</v>
+        <f>2*SQRT(2)*O4</f>
+        <v>115.55262890795024</v>
       </c>
       <c r="Q4">
         <f>P4/10</f>
-        <v>12.256207122711643</v>
+        <v>11.555262890795024</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
@@ -530,16 +531,16 @@
         <v>737390.99503124901</v>
       </c>
       <c r="F5">
-        <f>(D5/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>40.243673323009354</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G23" si="0">3*F5</f>
-        <v>120.73101996902807</v>
+        <f t="shared" ref="G5:G23" si="1">2*SQRT(2)*F5</f>
+        <v>113.82629722622431</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H23" si="1">G5/10</f>
-        <v>12.073101996902807</v>
+        <f t="shared" ref="H5:H23" si="2">G5/10</f>
+        <v>11.382629722622431</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -551,16 +552,16 @@
         <v>1284808.4400937399</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O33" si="2">(M5/8/SQRT(2))^(1/3)</f>
+        <f t="shared" ref="O5:O33" si="3">(M5/8/SQRT(2))^(1/3)</f>
         <v>48.425910907075718</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P33" si="3">3*O5</f>
-        <v>145.27773272122715</v>
+        <f t="shared" ref="P5:P33" si="4">2*SQRT(2)*O5</f>
+        <v>136.96915995011534</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q33" si="4">P5/10</f>
-        <v>14.527773272122715</v>
+        <f t="shared" ref="Q5:Q33" si="5">P5/10</f>
+        <v>13.696915995011533</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
@@ -574,16 +575,16 @@
         <v>728373.10556249903</v>
       </c>
       <c r="F6">
-        <f>(D6/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>40.078947262429558</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>120.23684178728868</v>
+        <f t="shared" si="1"/>
+        <v>113.36038156832782</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>12.023684178728868</v>
+        <f t="shared" si="2"/>
+        <v>11.336038156832782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -595,16 +596,16 @@
         <v>1134593.3199374899</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.459915168424615</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
-        <v>139.37974550527383</v>
+        <f t="shared" si="4"/>
+        <v>131.40848427577916</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>13.937974550527382</v>
+        <f t="shared" si="5"/>
+        <v>13.140848427577916</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
@@ -618,16 +619,16 @@
         <v>588205.54181249905</v>
       </c>
       <c r="F7">
-        <f>(D7/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>37.322842235303234</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>111.96852670590971</v>
+        <f t="shared" si="1"/>
+        <v>105.5649393509544</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>11.196852670590971</v>
+        <f t="shared" si="2"/>
+        <v>10.556493935095441</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -639,16 +640,16 @@
         <v>745395.82509374898</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.388772760848127</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
-        <v>121.16631828254438</v>
+        <f t="shared" si="4"/>
+        <v>114.23670041199291</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>12.116631828254437</v>
+        <f t="shared" si="5"/>
+        <v>11.423670041199291</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
@@ -662,16 +663,16 @@
         <v>940019.48381249898</v>
       </c>
       <c r="F8">
-        <f>(D8/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>43.635901911111539</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>130.90770573333461</v>
+        <f t="shared" si="1"/>
+        <v>123.420968578152</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>13.090770573333462</v>
+        <f t="shared" si="2"/>
+        <v>12.3420968578152</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -683,16 +684,16 @@
         <v>1367082.1499062399</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.438263656861963</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>148.31479097058588</v>
+        <f t="shared" si="4"/>
+        <v>139.83252592742215</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>14.831479097058587</v>
+        <f t="shared" si="5"/>
+        <v>13.983252592742215</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
@@ -706,16 +707,16 @@
         <v>994741.29928124906</v>
       </c>
       <c r="F9">
-        <f>(D9/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>44.466715805506801</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>133.40014741652041</v>
+        <f t="shared" si="1"/>
+        <v>125.77086513267558</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>13.340014741652041</v>
+        <f t="shared" si="2"/>
+        <v>12.577086513267558</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -727,16 +728,16 @@
         <v>729054.01434374903</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.091432442265067</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
-        <v>120.27429732679519</v>
+        <f t="shared" si="4"/>
+        <v>113.39569498963192</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>12.027429732679519</v>
+        <f t="shared" si="5"/>
+        <v>11.339569498963192</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
@@ -750,16 +751,16 @@
         <v>675096.14531249902</v>
       </c>
       <c r="F10">
-        <f>(D10/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>39.076909984863413</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>117.23072995459023</v>
+        <f t="shared" si="1"/>
+        <v>110.52619215245292</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>11.723072995459024</v>
+        <f t="shared" si="2"/>
+        <v>11.052619215245292</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -771,16 +772,16 @@
         <v>745877.443499999</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.397469611456728</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
-        <v>121.19240883437018</v>
+        <f t="shared" si="4"/>
+        <v>114.26129882015415</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>12.119240883437019</v>
+        <f t="shared" si="5"/>
+        <v>11.426129882015415</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
@@ -794,16 +795,16 @@
         <v>571415.32771874894</v>
       </c>
       <c r="F11">
-        <f>(D11/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>36.964284170847876</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>110.89285251254363</v>
+        <f t="shared" si="1"/>
+        <v>104.55078399565237</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>11.089285251254363</v>
+        <f t="shared" si="2"/>
+        <v>10.455078399565236</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -815,16 +816,16 @@
         <v>993695.02481249894</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.451120222827477</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
-        <v>133.35336066848242</v>
+        <f t="shared" si="4"/>
+        <v>125.72675416359915</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>13.335336066848242</v>
+        <f t="shared" si="5"/>
+        <v>12.572675416359916</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
@@ -838,16 +839,16 @@
         <v>568210.07418749901</v>
       </c>
       <c r="F12">
-        <f>(D12/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>36.895039659156453</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>110.68511897746936</v>
+        <f t="shared" si="1"/>
+        <v>104.35493094054455</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>11.068511897746935</v>
+        <f t="shared" si="2"/>
+        <v>10.435493094054454</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -859,16 +860,16 @@
         <v>995521.853249999</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.478343484339952</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
-        <v>133.43503045301986</v>
+        <f t="shared" si="4"/>
+        <v>125.8037531748851</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>13.343503045301986</v>
+        <f t="shared" si="5"/>
+        <v>12.58037531748851</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
@@ -882,16 +883,16 @@
         <v>934622.036156249</v>
       </c>
       <c r="F13">
-        <f>(D13/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>43.552224667520086</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>130.65667400256027</v>
+        <f t="shared" si="1"/>
+        <v>123.18429359265394</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>13.065667400256027</v>
+        <f t="shared" si="2"/>
+        <v>12.318429359265394</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -903,16 +904,16 @@
         <v>959782.44599999895</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.939583834263118</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
-        <v>131.81875150278935</v>
+        <f t="shared" si="4"/>
+        <v>124.27991076688902</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>13.181875150278936</v>
+        <f t="shared" si="5"/>
+        <v>12.427991076688901</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
@@ -926,16 +927,16 @@
         <v>793557.66571874905</v>
       </c>
       <c r="F14">
-        <f>(D14/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>41.240555087474171</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>123.7216652624225</v>
+        <f t="shared" si="1"/>
+        <v>116.64590464900144</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>12.37216652624225</v>
+        <f t="shared" si="2"/>
+        <v>11.664590464900144</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -947,16 +948,16 @@
         <v>436030.73296874901</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.778267605693379</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
-        <v>101.33480281708015</v>
+        <f t="shared" si="4"/>
+        <v>95.539368322878701</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>10.133480281708014</v>
+        <f t="shared" si="5"/>
+        <v>9.5539368322878708</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
@@ -970,16 +971,16 @@
         <v>422578.63265624898</v>
       </c>
       <c r="F15">
-        <f>(D15/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>33.427265404160416</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>100.28179621248125</v>
+        <f t="shared" si="1"/>
+        <v>94.546584175217248</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>10.028179621248125</v>
+        <f t="shared" si="2"/>
+        <v>9.4546584175217241</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -991,16 +992,16 @@
         <v>646796.91206249897</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.523078381356598</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
-        <v>115.56923514406979</v>
+        <f t="shared" si="4"/>
+        <v>108.95971982255256</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>11.556923514406979</v>
+        <f t="shared" si="5"/>
+        <v>10.895971982255256</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -1014,16 +1015,16 @@
         <v>925620.754218749</v>
       </c>
       <c r="F16">
-        <f>(D16/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>43.411957215296425</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>130.23587164588929</v>
+        <f t="shared" si="1"/>
+        <v>122.7875573260655</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>13.023587164588928</v>
+        <f t="shared" si="2"/>
+        <v>12.27875573260655</v>
       </c>
       <c r="K16">
         <v>13</v>
@@ -1035,16 +1036,16 @@
         <v>829977.98174999899</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.862053540047313</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
-        <v>125.58616062014194</v>
+        <f t="shared" si="4"/>
+        <v>118.4037677302471</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>12.558616062014194</v>
+        <f t="shared" si="5"/>
+        <v>11.84037677302471</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -1058,16 +1059,16 @@
         <v>299201.28299999901</v>
       </c>
       <c r="F17">
-        <f>(D17/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>29.793360313229559</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>89.380080939688682</v>
+        <f t="shared" si="1"/>
+        <v>84.268348447275145</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>8.9380080939688682</v>
+        <f t="shared" si="2"/>
+        <v>8.4268348447275141</v>
       </c>
       <c r="K17">
         <v>14</v>
@@ -1079,16 +1080,16 @@
         <v>722842.79765624902</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.977253837404717</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
-        <v>119.93176151221415</v>
+        <f t="shared" si="4"/>
+        <v>113.07274912657923</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>11.993176151221416</v>
+        <f t="shared" si="5"/>
+        <v>11.307274912657922</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
@@ -1102,16 +1103,16 @@
         <v>599365.80281249899</v>
       </c>
       <c r="F18">
-        <f>(D18/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>37.557412016015071</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>112.67223604804522</v>
+        <f t="shared" si="1"/>
+        <v>106.22840288136553</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>11.267223604804522</v>
+        <f t="shared" si="2"/>
+        <v>10.622840288136553</v>
       </c>
       <c r="K18">
         <v>15</v>
@@ -1123,16 +1124,16 @@
         <v>514916.50640624901</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.703485022056071</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
-        <v>107.11045506616821</v>
+        <f t="shared" si="4"/>
+        <v>100.98470548435273</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>10.711045506616822</v>
+        <f t="shared" si="5"/>
+        <v>10.098470548435273</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -1146,16 +1147,16 @@
         <v>471653.88749999902</v>
       </c>
       <c r="F19">
-        <f>(D19/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>34.674175621178613</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>104.02252686353583</v>
+        <f t="shared" si="1"/>
+        <v>98.073378855154672</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>10.402252686353583</v>
+        <f t="shared" si="2"/>
+        <v>9.8073378855154676</v>
       </c>
       <c r="K19">
         <v>16</v>
@@ -1167,16 +1168,16 @@
         <v>785868.37874999898</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.106920505480488</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
-        <v>123.32076151644146</v>
+        <f t="shared" si="4"/>
+        <v>116.26792897248639</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
-        <v>12.332076151644147</v>
+        <f t="shared" si="5"/>
+        <v>11.626792897248638</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
@@ -1190,16 +1191,16 @@
         <v>854540.52046874899</v>
       </c>
       <c r="F20">
-        <f>(D20/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>42.271003569482353</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>126.81301070844705</v>
+        <f t="shared" si="1"/>
+        <v>119.56045308616692</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>12.681301070844706</v>
+        <f t="shared" si="2"/>
+        <v>11.956045308616691</v>
       </c>
       <c r="K20">
         <v>17</v>
@@ -1211,16 +1212,16 @@
         <v>779408.04909374902</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.993968893393387</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
-        <v>122.98190668018016</v>
+        <f t="shared" si="4"/>
+        <v>115.94845356907543</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>12.298190668018016</v>
+        <f t="shared" si="5"/>
+        <v>11.594845356907543</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
@@ -1234,16 +1235,16 @@
         <v>724686.23362499895</v>
       </c>
       <c r="F21">
-        <f>(D21/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>40.011209098941812</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>120.03362729682544</v>
+        <f t="shared" si="1"/>
+        <v>113.16878910933859</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>12.003362729682545</v>
+        <f t="shared" si="2"/>
+        <v>11.316878910933859</v>
       </c>
       <c r="K21">
         <v>18</v>
@@ -1255,16 +1256,16 @@
         <v>761422.09274999902</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.676180231966221</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
-        <v>122.02854069589867</v>
+        <f t="shared" si="4"/>
+        <v>115.04961149915805</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
-        <v>12.202854069589867</v>
+        <f t="shared" si="5"/>
+        <v>11.504961149915804</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -1278,16 +1279,16 @@
         <v>531324.74728124903</v>
       </c>
       <c r="F22">
-        <f>(D22/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>36.078766957544367</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>108.23630087263311</v>
+        <f t="shared" si="1"/>
+        <v>102.04616309011507</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>10.823630087263311</v>
+        <f t="shared" si="2"/>
+        <v>10.204616309011508</v>
       </c>
       <c r="K22">
         <v>19</v>
@@ -1299,16 +1300,16 @@
         <v>605826.13246874895</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.691868967431724</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
-        <v>113.07560690229516</v>
+        <f t="shared" si="4"/>
+        <v>106.60870456986306</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>11.307560690229517</v>
+        <f t="shared" si="5"/>
+        <v>10.660870456986306</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
@@ -1322,16 +1323,16 @@
         <v>742041.10378124902</v>
       </c>
       <c r="F23">
-        <f>(D23/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="0"/>
         <v>40.328090526326157</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>120.98427157897848</v>
+        <f t="shared" si="1"/>
+        <v>114.06506513388076</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>12.098427157897849</v>
+        <f t="shared" si="2"/>
+        <v>11.406506513388077</v>
       </c>
       <c r="K23">
         <v>20</v>
@@ -1343,16 +1344,16 @@
         <v>732906.961593749</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.161934238573714</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
-        <v>120.48580271572115</v>
+        <f t="shared" si="4"/>
+        <v>113.59510418265462</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>12.048580271572115</v>
+        <f t="shared" si="5"/>
+        <v>11.359510418265462</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
@@ -1366,22 +1367,22 @@
         <v>426813.55312499899</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.538559510000944</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
-        <v>100.61567853000284</v>
+        <f t="shared" si="4"/>
+        <v>94.861371443000962</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>10.061567853000284</v>
+        <f t="shared" si="5"/>
+        <v>9.4861371443000966</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>AVERAGE(H4:H23)</f>
-        <v>11.609565745274699</v>
+        <v>10.945603553486395</v>
       </c>
       <c r="K25">
         <v>22</v>
@@ -1393,16 +1394,16 @@
         <v>773528.98303124902</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.890636296776371</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
-        <v>122.67190889032912</v>
+        <f t="shared" si="4"/>
+        <v>115.6561848499334</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>12.267190889032912</v>
+        <f t="shared" si="5"/>
+        <v>11.56561848499334</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
@@ -1419,16 +1420,16 @@
         <v>689411.83724999905</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.35119424776957</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
-        <v>118.05358274330871</v>
+        <f t="shared" si="4"/>
+        <v>111.30198520154771</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>11.805358274330871</v>
+        <f t="shared" si="5"/>
+        <v>11.130198520154771</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -1451,16 +1452,16 @@
         <v>600295.82456249895</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.576827626741171</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
-        <v>112.73048288022352</v>
+        <f t="shared" si="4"/>
+        <v>106.28331852138673</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>11.273048288022352</v>
+        <f t="shared" si="5"/>
+        <v>10.628331852138674</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
@@ -1474,16 +1475,16 @@
         <v>1023389.29068749</v>
       </c>
       <c r="F28">
-        <f>(D28/8/SQRT(2))^(1/3)</f>
+        <f t="shared" ref="F28:F47" si="6">(D28/8/SQRT(2))^(1/3)</f>
         <v>44.889554401814188</v>
       </c>
       <c r="G28">
-        <f>3*F28</f>
-        <v>134.66866320544256</v>
+        <f>2*SQRT(2)*F28</f>
+        <v>126.96683328786099</v>
       </c>
       <c r="H28">
         <f>G28/10</f>
-        <v>13.466866320544256</v>
+        <v>12.696683328786099</v>
       </c>
       <c r="K28">
         <v>25</v>
@@ -1495,16 +1496,16 @@
         <v>927696.695624999</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.444387124278634</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
-        <v>130.33316137283589</v>
+        <f t="shared" si="4"/>
+        <v>122.87928296028383</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>13.033316137283588</v>
+        <f t="shared" si="5"/>
+        <v>12.287928296028383</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
@@ -1518,16 +1519,16 @@
         <v>581330.02387499902</v>
       </c>
       <c r="F29">
-        <f>(D29/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>37.176850033794558</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G47" si="5">3*F29</f>
-        <v>111.53055010138368</v>
+        <f t="shared" ref="G29:G47" si="7">2*SQRT(2)*F29</f>
+        <v>105.15201104820585</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H47" si="6">G29/10</f>
-        <v>11.153055010138369</v>
+        <f t="shared" ref="H29:H47" si="8">G29/10</f>
+        <v>10.515201104820585</v>
       </c>
       <c r="K29">
         <v>26</v>
@@ -1539,16 +1540,16 @@
         <v>960396.924656249</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.948958936771021</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
-        <v>131.84687681031306</v>
+        <f t="shared" si="4"/>
+        <v>124.30642756111965</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>13.184687681031306</v>
+        <f t="shared" si="5"/>
+        <v>12.430642756111965</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -1562,16 +1563,16 @@
         <v>635520.398343749</v>
       </c>
       <c r="F30">
-        <f>(D30/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>38.29788904744192</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>114.89366714232577</v>
+        <f t="shared" si="7"/>
+        <v>108.32278820230476</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
-        <v>11.489366714232577</v>
+        <f t="shared" si="8"/>
+        <v>10.832278820230476</v>
       </c>
       <c r="K30">
         <v>27</v>
@@ -1583,16 +1584,16 @@
         <v>424887.079499999</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.488023310317786</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
-        <v>100.46406993095336</v>
+        <f t="shared" si="4"/>
+        <v>94.718433485035533</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>10.046406993095335</v>
+        <f t="shared" si="5"/>
+        <v>9.4718433485035529</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -1606,16 +1607,16 @@
         <v>808438.01371874905</v>
       </c>
       <c r="F31">
-        <f>(D31/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>41.496733706967468</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>124.49020112090241</v>
+        <f t="shared" si="7"/>
+        <v>117.37048720515631</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
-        <v>12.449020112090242</v>
+        <f t="shared" si="8"/>
+        <v>11.737048720515631</v>
       </c>
       <c r="K31">
         <v>28</v>
@@ -1627,16 +1628,16 @@
         <v>1199678.2349062399</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.331826618437439</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
-        <v>141.99547985531231</v>
+        <f t="shared" si="4"/>
+        <v>133.8746222713722</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>14.199547985531231</v>
+        <f t="shared" si="5"/>
+        <v>13.38746222713722</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -1650,16 +1651,16 @@
         <v>549011.768062499</v>
       </c>
       <c r="F32">
-        <f>(D32/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>36.474741521149255</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>109.42422456344777</v>
+        <f t="shared" si="7"/>
+        <v>103.16614828652467</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
-        <v>10.942422456344776</v>
+        <f t="shared" si="8"/>
+        <v>10.316614828652467</v>
       </c>
       <c r="K32">
         <v>29</v>
@@ -1671,16 +1672,16 @@
         <v>388167.82790624897</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.494125303083756</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
-        <v>97.48237590925126</v>
+        <f t="shared" si="4"/>
+        <v>91.907265402143622</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>9.7482375909251253</v>
+        <f t="shared" si="5"/>
+        <v>9.1907265402143619</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
@@ -1694,16 +1695,16 @@
         <v>1551409.13924999</v>
       </c>
       <c r="F33">
-        <f>(D33/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>51.567228046774716</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>154.70168414032415</v>
+        <f t="shared" si="7"/>
+        <v>145.85414655547012</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
-        <v>15.470168414032415</v>
+        <f t="shared" si="8"/>
+        <v>14.585414655547012</v>
       </c>
       <c r="K33">
         <v>30</v>
@@ -1715,16 +1716,16 @@
         <v>1066352.97403124</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.509143979493572</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
-        <v>136.52743193848073</v>
+        <f t="shared" si="4"/>
+        <v>128.71929725557939</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>13.652743193848073</v>
+        <f t="shared" si="5"/>
+        <v>12.871929725557939</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
@@ -1738,16 +1739,16 @@
         <v>818635.03790624905</v>
       </c>
       <c r="F34">
-        <f>(D34/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>41.670474708628724</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>125.01142412588618</v>
+        <f t="shared" si="7"/>
+        <v>117.86190096693558</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
-        <v>12.501142412588617</v>
+        <f t="shared" si="8"/>
+        <v>11.786190096693558</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -1761,20 +1762,20 @@
         <v>650218.063499999</v>
       </c>
       <c r="F35">
-        <f>(D35/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>38.590879981784489</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>115.77263994535346</v>
+        <f t="shared" si="7"/>
+        <v>109.15149170830402</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
-        <v>11.577263994535347</v>
+        <f t="shared" si="8"/>
+        <v>10.915149170830402</v>
       </c>
       <c r="Q35">
         <f>AVERAGE(Q4:Q33)</f>
-        <v>12.269735300078084</v>
+        <v>11.568017378732234</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
@@ -1788,16 +1789,16 @@
         <v>1208314.1511562399</v>
       </c>
       <c r="F36">
-        <f>(D36/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>47.445128328375873</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>142.33538498512763</v>
+        <f t="shared" si="7"/>
+        <v>134.1950879010422</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
-        <v>14.233538498512763</v>
+        <f t="shared" si="8"/>
+        <v>13.419508790104221</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
@@ -1811,16 +1812,16 @@
         <v>1093954.69096874</v>
       </c>
       <c r="F37">
-        <f>(D37/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>45.898460264633925</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>137.69538079390179</v>
+        <f t="shared" si="7"/>
+        <v>129.8204499965758</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
-        <v>13.769538079390179</v>
+        <f t="shared" si="8"/>
+        <v>12.98204499965758</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
@@ -1834,16 +1835,16 @@
         <v>405655.55831249902</v>
       </c>
       <c r="F38">
-        <f>(D38/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>32.974950231931189</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>98.924850695793566</v>
+        <f t="shared" si="7"/>
+        <v>93.267243673149849</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
-        <v>9.8924850695793562</v>
+        <f t="shared" si="8"/>
+        <v>9.3267243673149842</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
@@ -1857,16 +1858,16 @@
         <v>693048.88659374905</v>
       </c>
       <c r="F39">
-        <f>(D39/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>39.42027307610735</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>118.26081922832205</v>
+        <f t="shared" si="7"/>
+        <v>111.49736963336397</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
-        <v>11.826081922832206</v>
+        <f t="shared" si="8"/>
+        <v>11.149736963336398</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
@@ -1880,16 +1881,16 @@
         <v>1415077.91521874</v>
       </c>
       <c r="F40">
-        <f>(D40/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>50.010184421385254</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>150.03055326415577</v>
+        <f t="shared" si="7"/>
+        <v>141.45016213100541</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
-        <v>15.003055326415577</v>
+        <f t="shared" si="8"/>
+        <v>14.145016213100542</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
@@ -1903,16 +1904,16 @@
         <v>1229638.22128124</v>
       </c>
       <c r="F41">
-        <f>(D41/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>47.72260290105099</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>143.16780870315296</v>
+        <f t="shared" si="7"/>
+        <v>134.97990450882386</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
-        <v>14.316780870315295</v>
+        <f t="shared" si="8"/>
+        <v>13.497990450882387</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
@@ -1926,16 +1927,16 @@
         <v>348442.61315624899</v>
       </c>
       <c r="F42">
-        <f>(D42/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>31.345516166069295</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>94.036548498207878</v>
+        <f t="shared" si="7"/>
+        <v>88.658508163280601</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
-        <v>9.4036548498207875</v>
+        <f t="shared" si="8"/>
+        <v>8.8658508163280594</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -1949,16 +1950,16 @@
         <v>290216.608593749</v>
       </c>
       <c r="F43">
-        <f>(D43/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>29.49210417571383</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>88.476312527141488</v>
+        <f t="shared" si="7"/>
+        <v>83.416267416429378</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
-        <v>8.8476312527141481</v>
+        <f t="shared" si="8"/>
+        <v>8.341626741642937</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
@@ -1972,16 +1973,16 @@
         <v>1270941.1514999899</v>
       </c>
       <c r="F44">
-        <f>(D44/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>48.251055606402105</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>144.75316681920631</v>
+        <f t="shared" si="7"/>
+        <v>136.47459447478445</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
-        <v>14.475316681920631</v>
+        <f t="shared" si="8"/>
+        <v>13.647459447478445</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -1995,16 +1996,16 @@
         <v>650550.21412499901</v>
       </c>
       <c r="F45">
-        <f>(D45/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>38.597449984291785</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>115.79234995287536</v>
+        <f t="shared" si="7"/>
+        <v>109.1700744816053</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
-        <v>11.579234995287536</v>
+        <f t="shared" si="8"/>
+        <v>10.917007448160529</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
@@ -2018,16 +2019,16 @@
         <v>223454.33296874899</v>
       </c>
       <c r="F46">
-        <f>(D46/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>27.030947261067794</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>81.092841783203383</v>
+        <f t="shared" si="7"/>
+        <v>76.455064440787893</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
-        <v>8.1092841783203387</v>
+        <f t="shared" si="8"/>
+        <v>7.645506444078789</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
@@ -2041,25 +2042,39 @@
         <v>750959.34806249896</v>
       </c>
       <c r="F47">
-        <f>(D47/8/SQRT(2))^(1/3)</f>
+        <f t="shared" si="6"/>
         <v>40.489009043396536</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>121.46702713018961</v>
+        <f t="shared" si="7"/>
+        <v>114.52021143243655</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
-        <v>12.146702713018961</v>
+        <f t="shared" si="8"/>
+        <v>11.452021143243655</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49">
         <f>AVERAGE(H28:H47)</f>
-        <v>12.132630493631716</v>
+        <v>11.438753727570237</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EEF69D-D852-8544-BF3B-C396DB82679C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/USHPRR/al_poly_grain_info.xlsx
+++ b/USHPRR/al_poly_grain_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BA0A3-0029-C449-9914-4E20D549D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06EF14-F2E7-8748-88F8-A85E0C4419CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="5380" windowWidth="27240" windowHeight="16440" xr2:uid="{EE52B625-1081-7146-AB4E-A38D6DBE3342}"/>
+    <workbookView xWindow="23440" yWindow="5960" windowWidth="27240" windowHeight="16440" xr2:uid="{EE52B625-1081-7146-AB4E-A38D6DBE3342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>d</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>20B.lmp</t>
+  </si>
+  <si>
+    <t>midscribed radius</t>
+  </si>
+  <si>
+    <t>r=3/2a</t>
   </si>
 </sst>
 </file>
@@ -432,1632 +438,1640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801448F4-0BA7-9D4E-AA8A-E72A2DBD9939}">
-  <dimension ref="B1:Q49"/>
+  <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P5" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>24350</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>404393.385937499</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F23" si="0">(D4/8/SQRT(2))^(1/3)</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F25" si="0">(D6/8/SQRT(2))^(1/3)</f>
         <v>32.940714855582769</v>
       </c>
-      <c r="G4">
-        <f>2*SQRT(2)*F4</f>
-        <v>93.170411406060083</v>
-      </c>
-      <c r="H4">
-        <f>G4/10</f>
-        <v>9.3170411406060083</v>
-      </c>
-      <c r="K4">
+      <c r="G6">
+        <f>3*F6</f>
+        <v>98.822144566748307</v>
+      </c>
+      <c r="H6">
+        <f>G6/10</f>
+        <v>9.8822144566748307</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>46452</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>771453.04162499902</v>
       </c>
-      <c r="O4">
-        <f>(M4/8/SQRT(2))^(1/3)</f>
+      <c r="O6">
+        <f>(M6/8/SQRT(2))^(1/3)</f>
         <v>40.854023742372142</v>
       </c>
-      <c r="P4">
-        <f>2*SQRT(2)*O4</f>
-        <v>115.55262890795024</v>
-      </c>
-      <c r="Q4">
-        <f>P4/10</f>
-        <v>11.555262890795024</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="P6">
+        <f>3*O6</f>
+        <v>122.56207122711643</v>
+      </c>
+      <c r="Q6">
+        <f>P6/10</f>
+        <v>12.256207122711643</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>44401</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>737390.99503124901</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>40.243673323009354</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G23" si="1">2*SQRT(2)*F5</f>
-        <v>113.82629722622431</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H23" si="2">G5/10</f>
-        <v>11.382629722622431</v>
-      </c>
-      <c r="K5">
+      <c r="G7">
+        <f t="shared" ref="G7:G25" si="1">3*F7</f>
+        <v>120.73101996902807</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H25" si="2">G7/10</f>
+        <v>12.073101996902807</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>77363</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>1284808.4400937399</v>
       </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O33" si="3">(M5/8/SQRT(2))^(1/3)</f>
+      <c r="O7">
+        <f t="shared" ref="O7:O35" si="3">(M7/8/SQRT(2))^(1/3)</f>
         <v>48.425910907075718</v>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P33" si="4">2*SQRT(2)*O5</f>
-        <v>136.96915995011534</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q33" si="5">P5/10</f>
-        <v>13.696915995011533</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="P7">
+        <f t="shared" ref="P7:P35" si="4">3*O7</f>
+        <v>145.27773272122715</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q35" si="5">P7/10</f>
+        <v>14.527773272122715</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>43858</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>728373.10556249903</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>40.078947262429558</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>113.36038156832782</v>
-      </c>
-      <c r="H6">
+        <v>120.23684178728868</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>11.336038156832782</v>
-      </c>
-      <c r="K6">
+        <v>12.023684178728868</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>68318</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>1134593.3199374899</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>46.459915168424615</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>131.40848427577916</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>13.140848427577916</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>139.37974550527383</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>13.937974550527382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>35418</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>588205.54181249905</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>37.322842235303234</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>105.5649393509544</v>
-      </c>
-      <c r="H7">
+        <v>111.96852670590971</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>10.556493935095441</v>
-      </c>
-      <c r="K7">
+        <v>11.196852670590971</v>
+      </c>
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>44883</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>745395.82509374898</v>
       </c>
-      <c r="O7">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>40.388772760848127</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
-        <v>114.23670041199291</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>11.423670041199291</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>121.16631828254438</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>12.116631828254437</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>56602</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>940019.48381249898</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>43.635901911111539</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>123.420968578152</v>
-      </c>
-      <c r="H8">
+        <v>130.90770573333461</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>12.3420968578152</v>
-      </c>
-      <c r="K8">
+        <v>13.090770573333462</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>82317</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>1367082.1499062399</v>
       </c>
-      <c r="O8">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>49.438263656861963</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
-        <v>139.83252592742215</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>13.983252592742215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>148.31479097058588</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>14.831479097058587</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>59897</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>994741.29928124906</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>44.466715805506801</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>125.77086513267558</v>
-      </c>
-      <c r="H9">
+        <v>133.40014741652041</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>12.577086513267558</v>
-      </c>
-      <c r="K9">
+        <v>13.340014741652041</v>
+      </c>
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>43899</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>729054.01434374903</v>
       </c>
-      <c r="O9">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>40.091432442265067</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>113.39569498963192</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>11.339569498963192</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>120.27429732679519</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>12.027429732679519</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>40650</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>675096.14531249902</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>39.076909984863413</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>110.52619215245292</v>
-      </c>
-      <c r="H10">
+        <v>117.23072995459023</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>11.052619215245292</v>
-      </c>
-      <c r="K10">
+        <v>11.723072995459024</v>
+      </c>
+      <c r="K12">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>44912</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>745877.443499999</v>
       </c>
-      <c r="O10">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>40.397469611456728</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>114.26129882015415</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>11.426129882015415</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>121.19240883437018</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>12.119240883437019</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>34407</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>571415.32771874894</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>36.964284170847876</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>104.55078399565237</v>
-      </c>
-      <c r="H11">
+        <v>110.89285251254363</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>10.455078399565236</v>
-      </c>
-      <c r="K11">
+        <v>11.089285251254363</v>
+      </c>
+      <c r="K13">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>59834</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>993695.02481249894</v>
       </c>
-      <c r="O11">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>44.451120222827477</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>125.72675416359915</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>12.572675416359916</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>133.35336066848242</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>13.335336066848242</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>34214</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>568210.07418749901</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>36.895039659156453</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>104.35493094054455</v>
-      </c>
-      <c r="H12">
+        <v>110.68511897746936</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>10.435493094054454</v>
-      </c>
-      <c r="K12">
+        <v>11.068511897746935</v>
+      </c>
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>59944</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>995521.853249999</v>
       </c>
-      <c r="O12">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>44.478343484339952</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>125.8037531748851</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>12.58037531748851</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>133.43503045301986</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>13.343503045301986</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>56277</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>934622.036156249</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>43.552224667520086</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>123.18429359265394</v>
-      </c>
-      <c r="H13">
+        <v>130.65667400256027</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>12.318429359265394</v>
-      </c>
-      <c r="K13">
+        <v>13.065667400256027</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>57792</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>959782.44599999895</v>
       </c>
-      <c r="O13">
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>43.939583834263118</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
-        <v>124.27991076688902</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>12.427991076688901</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>131.81875150278935</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>13.181875150278936</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>47783</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>793557.66571874905</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>41.240555087474171</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>116.64590464900144</v>
-      </c>
-      <c r="H14">
+        <v>123.7216652624225</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>11.664590464900144</v>
-      </c>
-      <c r="K14">
+        <v>12.37216652624225</v>
+      </c>
+      <c r="K16">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>26255</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>436030.73296874901</v>
       </c>
-      <c r="O14">
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>33.778267605693379</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
-        <v>95.539368322878701</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>9.5539368322878708</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>101.33480281708015</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>10.133480281708014</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>25445</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>422578.63265624898</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>33.427265404160416</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>94.546584175217248</v>
-      </c>
-      <c r="H15">
+        <v>100.28179621248125</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>9.4546584175217241</v>
-      </c>
-      <c r="K15">
+        <v>10.028179621248125</v>
+      </c>
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>38946</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>646796.91206249897</v>
       </c>
-      <c r="O15">
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>38.523078381356598</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="4"/>
-        <v>108.95971982255256</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>10.895971982255256</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>115.56923514406979</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>11.556923514406979</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>55735</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>925620.754218749</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>43.411957215296425</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>122.7875573260655</v>
-      </c>
-      <c r="H16">
+        <v>130.23587164588929</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>12.27875573260655</v>
-      </c>
-      <c r="K16">
+        <v>13.023587164588928</v>
+      </c>
+      <c r="K18">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>49976</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>829977.98174999899</v>
       </c>
-      <c r="O16">
+      <c r="O18">
         <f t="shared" si="3"/>
         <v>41.862053540047313</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="4"/>
-        <v>118.4037677302471</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>11.84037677302471</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>125.58616062014194</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>12.558616062014194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>18016</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>299201.28299999901</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>29.793360313229559</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>84.268348447275145</v>
-      </c>
-      <c r="H17">
+        <v>89.380080939688682</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>8.4268348447275141</v>
-      </c>
-      <c r="K17">
+        <v>8.9380080939688682</v>
+      </c>
+      <c r="K19">
         <v>14</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>43525</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <v>722842.79765624902</v>
       </c>
-      <c r="O17">
+      <c r="O19">
         <f t="shared" si="3"/>
         <v>39.977253837404717</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
-        <v>113.07274912657923</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>11.307274912657922</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>119.93176151221415</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>11.993176151221416</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>36090</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>599365.80281249899</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>37.557412016015071</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>106.22840288136553</v>
-      </c>
-      <c r="H18">
+        <v>112.67223604804522</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>10.622840288136553</v>
-      </c>
-      <c r="K18">
+        <v>11.267223604804522</v>
+      </c>
+      <c r="K20">
         <v>15</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>31005</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>514916.50640624901</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <f t="shared" si="3"/>
         <v>35.703485022056071</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="4"/>
-        <v>100.98470548435273</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>10.098470548435273</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>107.11045506616821</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>10.711045506616822</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>28400</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>471653.88749999902</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>34.674175621178613</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>98.073378855154672</v>
-      </c>
-      <c r="H19">
+        <v>104.02252686353583</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>9.8073378855154676</v>
-      </c>
-      <c r="K19">
+        <v>10.402252686353583</v>
+      </c>
+      <c r="K21">
         <v>16</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>47320</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <v>785868.37874999898</v>
       </c>
-      <c r="O19">
+      <c r="O21">
         <f t="shared" si="3"/>
         <v>41.106920505480488</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="4"/>
-        <v>116.26792897248639</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="5"/>
-        <v>11.626792897248638</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>123.32076151644146</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>12.332076151644147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>51455</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>854540.52046874899</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>42.271003569482353</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>119.56045308616692</v>
-      </c>
-      <c r="H20">
+        <v>126.81301070844705</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
-        <v>11.956045308616691</v>
-      </c>
-      <c r="K20">
+        <v>12.681301070844706</v>
+      </c>
+      <c r="K22">
         <v>17</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>46931</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <v>779408.04909374902</v>
       </c>
-      <c r="O20">
+      <c r="O22">
         <f t="shared" si="3"/>
         <v>40.993968893393387</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="4"/>
-        <v>115.94845356907543</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="5"/>
-        <v>11.594845356907543</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>122.98190668018016</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>12.298190668018016</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>43636</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>724686.23362499895</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>40.011209098941812</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>113.16878910933859</v>
-      </c>
-      <c r="H21">
+        <v>120.03362729682544</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
-        <v>11.316878910933859</v>
-      </c>
-      <c r="K21">
+        <v>12.003362729682545</v>
+      </c>
+      <c r="K23">
         <v>18</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>45848</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>761422.09274999902</v>
       </c>
-      <c r="O21">
+      <c r="O23">
         <f t="shared" si="3"/>
         <v>40.676180231966221</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="4"/>
-        <v>115.04961149915805</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>11.504961149915804</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>122.02854069589867</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>12.202854069589867</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>31993</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>531324.74728124903</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>36.078766957544367</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>102.04616309011507</v>
-      </c>
-      <c r="H22">
+        <v>108.23630087263311</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
-        <v>10.204616309011508</v>
-      </c>
-      <c r="K22">
+        <v>10.823630087263311</v>
+      </c>
+      <c r="K24">
         <v>19</v>
       </c>
-      <c r="L22">
+      <c r="L24">
         <v>36479</v>
       </c>
-      <c r="M22">
+      <c r="M24">
         <v>605826.13246874895</v>
       </c>
-      <c r="O22">
+      <c r="O24">
         <f t="shared" si="3"/>
         <v>37.691868967431724</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
-        <v>106.60870456986306</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>10.660870456986306</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>113.07560690229516</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>11.307560690229517</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>44681</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>742041.10378124902</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>40.328090526326157</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>114.06506513388076</v>
-      </c>
-      <c r="H23">
+        <v>120.98427157897848</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
-        <v>11.406506513388077</v>
-      </c>
-      <c r="K23">
+        <v>12.098427157897849</v>
+      </c>
+      <c r="K25">
         <v>20</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>44131</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>732906.961593749</v>
       </c>
-      <c r="O23">
+      <c r="O25">
         <f t="shared" si="3"/>
         <v>40.161934238573714</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>113.59510418265462</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>11.359510418265462</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K24">
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>120.48580271572115</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>12.048580271572115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K26">
         <v>21</v>
       </c>
-      <c r="L24">
+      <c r="L26">
         <v>25700</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <v>426813.55312499899</v>
       </c>
-      <c r="O24">
+      <c r="O26">
         <f t="shared" si="3"/>
         <v>33.538559510000944</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="4"/>
-        <v>94.861371443000962</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>9.4861371443000966</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H25">
-        <f>AVERAGE(H4:H23)</f>
-        <v>10.945603553486395</v>
-      </c>
-      <c r="K25">
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>100.61567853000284</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>10.061567853000284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>AVERAGE(H6:H25)</f>
+        <v>11.609565745274699</v>
+      </c>
+      <c r="K27">
         <v>22</v>
       </c>
-      <c r="L25">
+      <c r="L27">
         <v>46577</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>773528.98303124902</v>
       </c>
-      <c r="O25">
+      <c r="O27">
         <f t="shared" si="3"/>
         <v>40.890636296776371</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="4"/>
-        <v>115.6561848499334</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>11.56561848499334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>122.67190889032912</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>12.267190889032912</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>23</v>
       </c>
-      <c r="L26">
+      <c r="L28">
         <v>41512</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <v>689411.83724999905</v>
       </c>
-      <c r="O26">
+      <c r="O28">
         <f t="shared" si="3"/>
         <v>39.35119424776957</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
-        <v>111.30198520154771</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="5"/>
-        <v>11.130198520154771</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>118.05358274330871</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>11.805358274330871</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>24</v>
       </c>
-      <c r="L27">
+      <c r="L29">
         <v>36146</v>
       </c>
-      <c r="M27">
+      <c r="M29">
         <v>600295.82456249895</v>
       </c>
-      <c r="O27">
+      <c r="O29">
         <f t="shared" si="3"/>
         <v>37.576827626741171</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
-        <v>106.28331852138673</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>10.628331852138674</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28">
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>112.73048288022352</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>11.273048288022352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>61622</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>1023389.29068749</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F47" si="6">(D28/8/SQRT(2))^(1/3)</f>
+      <c r="F30">
+        <f t="shared" ref="F30:F49" si="6">(D30/8/SQRT(2))^(1/3)</f>
         <v>44.889554401814188</v>
       </c>
-      <c r="G28">
-        <f>2*SQRT(2)*F28</f>
-        <v>126.96683328786099</v>
-      </c>
-      <c r="H28">
-        <f>G28/10</f>
-        <v>12.696683328786099</v>
-      </c>
-      <c r="K28">
+      <c r="G30">
+        <f>3*F30</f>
+        <v>134.66866320544256</v>
+      </c>
+      <c r="H30">
+        <f>G30/10</f>
+        <v>13.466866320544256</v>
+      </c>
+      <c r="K30">
         <v>25</v>
       </c>
-      <c r="L28">
+      <c r="L30">
         <v>55860</v>
       </c>
-      <c r="M28">
+      <c r="M30">
         <v>927696.695624999</v>
       </c>
-      <c r="O28">
+      <c r="O30">
         <f t="shared" si="3"/>
         <v>43.444387124278634</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="4"/>
-        <v>122.87928296028383</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>12.287928296028383</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>130.33316137283589</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>13.033316137283588</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>35004</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>581330.02387499902</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <f t="shared" si="6"/>
         <v>37.176850033794558</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G47" si="7">2*SQRT(2)*F29</f>
-        <v>105.15201104820585</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H47" si="8">G29/10</f>
-        <v>10.515201104820585</v>
-      </c>
-      <c r="K29">
+      <c r="G31">
+        <f t="shared" ref="G31:G49" si="7">3*F31</f>
+        <v>111.53055010138368</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H49" si="8">G31/10</f>
+        <v>11.153055010138369</v>
+      </c>
+      <c r="K31">
         <v>26</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>57829</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>960396.924656249</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <f t="shared" si="3"/>
         <v>43.948958936771021</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="4"/>
-        <v>124.30642756111965</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>12.430642756111965</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>131.84687681031306</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>13.184687681031306</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>38267</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>635520.398343749</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <f t="shared" si="6"/>
         <v>38.29788904744192</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <f t="shared" si="7"/>
-        <v>108.32278820230476</v>
-      </c>
-      <c r="H30">
+        <v>114.89366714232577</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="8"/>
-        <v>10.832278820230476</v>
-      </c>
-      <c r="K30">
+        <v>11.489366714232577</v>
+      </c>
+      <c r="K32">
         <v>27</v>
       </c>
-      <c r="L30">
+      <c r="L32">
         <v>25584</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>424887.079499999</v>
       </c>
-      <c r="O30">
+      <c r="O32">
         <f t="shared" si="3"/>
         <v>33.488023310317786</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="4"/>
-        <v>94.718433485035533</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>9.4718433485035529</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31">
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>100.46406993095336</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>10.046406993095335</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>48679</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>808438.01371874905</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <f t="shared" si="6"/>
         <v>41.496733706967468</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <f t="shared" si="7"/>
-        <v>117.37048720515631</v>
-      </c>
-      <c r="H31">
+        <v>124.49020112090241</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="8"/>
-        <v>11.737048720515631</v>
-      </c>
-      <c r="K31">
+        <v>12.449020112090242</v>
+      </c>
+      <c r="K33">
         <v>28</v>
       </c>
-      <c r="L31">
+      <c r="L33">
         <v>72237</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>1199678.2349062399</v>
       </c>
-      <c r="O31">
+      <c r="O33">
         <f t="shared" si="3"/>
         <v>47.331826618437439</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="4"/>
-        <v>133.8746222713722</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>13.38746222713722</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32">
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>141.99547985531231</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>14.199547985531231</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>33058</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>549011.768062499</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <f t="shared" si="6"/>
         <v>36.474741521149255</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <f t="shared" si="7"/>
-        <v>103.16614828652467</v>
-      </c>
-      <c r="H32">
+        <v>109.42422456344777</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="8"/>
-        <v>10.316614828652467</v>
-      </c>
-      <c r="K32">
+        <v>10.942422456344776</v>
+      </c>
+      <c r="K34">
         <v>29</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>23373</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>388167.82790624897</v>
       </c>
-      <c r="O32">
+      <c r="O34">
         <f t="shared" si="3"/>
         <v>32.494125303083756</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="4"/>
-        <v>91.907265402143622</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>9.1907265402143619</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33">
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>97.48237590925126</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>9.7482375909251253</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>93416</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>1551409.13924999</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <f t="shared" si="6"/>
         <v>51.567228046774716</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <f t="shared" si="7"/>
-        <v>145.85414655547012</v>
-      </c>
-      <c r="H33">
+        <v>154.70168414032415</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="8"/>
-        <v>14.585414655547012</v>
-      </c>
-      <c r="K33">
+        <v>15.470168414032415</v>
+      </c>
+      <c r="K35">
         <v>30</v>
       </c>
-      <c r="L33">
+      <c r="L35">
         <v>64209</v>
       </c>
-      <c r="M33">
+      <c r="M35">
         <v>1066352.97403124</v>
       </c>
-      <c r="O33">
+      <c r="O35">
         <f t="shared" si="3"/>
         <v>45.509143979493572</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="4"/>
-        <v>128.71929725557939</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="5"/>
-        <v>12.871929725557939</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34">
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>136.52743193848073</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>13.652743193848073</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>49293</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>818635.03790624905</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <f t="shared" si="6"/>
         <v>41.670474708628724</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <f t="shared" si="7"/>
-        <v>117.86190096693558</v>
-      </c>
-      <c r="H34">
+        <v>125.01142412588618</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="8"/>
-        <v>11.786190096693558</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35">
+        <v>12.501142412588617</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>39152</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>650218.063499999</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <f t="shared" si="6"/>
         <v>38.590879981784489</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <f t="shared" si="7"/>
-        <v>109.15149170830402</v>
-      </c>
-      <c r="H35">
+        <v>115.77263994535346</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="8"/>
-        <v>10.915149170830402</v>
-      </c>
-      <c r="Q35">
-        <f>AVERAGE(Q4:Q33)</f>
-        <v>11.568017378732234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36">
+        <v>11.577263994535347</v>
+      </c>
+      <c r="Q37">
+        <f>AVERAGE(Q6:Q35)</f>
+        <v>12.269735300078084</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>72757</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>1208314.1511562399</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <f t="shared" si="6"/>
         <v>47.445128328375873</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <f t="shared" si="7"/>
-        <v>134.1950879010422</v>
-      </c>
-      <c r="H36">
+        <v>142.33538498512763</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="8"/>
-        <v>13.419508790104221</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37">
+        <v>14.233538498512763</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>65871</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>1093954.69096874</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <f t="shared" si="6"/>
         <v>45.898460264633925</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <f t="shared" si="7"/>
-        <v>129.8204499965758</v>
-      </c>
-      <c r="H37">
+        <v>137.69538079390179</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="8"/>
-        <v>12.98204499965758</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38">
+        <v>13.769538079390179</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>24426</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>405655.55831249902</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <f t="shared" si="6"/>
         <v>32.974950231931189</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <f t="shared" si="7"/>
-        <v>93.267243673149849</v>
-      </c>
-      <c r="H38">
+        <v>98.924850695793566</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="8"/>
-        <v>9.3267243673149842</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39">
+        <v>9.8924850695793562</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>12</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>41731</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>693048.88659374905</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <f t="shared" si="6"/>
         <v>39.42027307610735</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <f t="shared" si="7"/>
-        <v>111.49736963336397</v>
-      </c>
-      <c r="H39">
+        <v>118.26081922832205</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="8"/>
-        <v>11.149736963336398</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40">
+        <v>11.826081922832206</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>85207</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>1415077.91521874</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <f t="shared" si="6"/>
         <v>50.010184421385254</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <f t="shared" si="7"/>
-        <v>141.45016213100541</v>
-      </c>
-      <c r="H40">
+        <v>150.03055326415577</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="8"/>
-        <v>14.145016213100542</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41">
+        <v>15.003055326415577</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>74041</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>1229638.22128124</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <f t="shared" si="6"/>
         <v>47.72260290105099</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <f t="shared" si="7"/>
-        <v>134.97990450882386</v>
-      </c>
-      <c r="H41">
+        <v>143.16780870315296</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="8"/>
-        <v>13.497990450882387</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42">
+        <v>14.316780870315295</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>15</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>20981</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>348442.61315624899</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <f t="shared" si="6"/>
         <v>31.345516166069295</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <f t="shared" si="7"/>
-        <v>88.658508163280601</v>
-      </c>
-      <c r="H42">
+        <v>94.036548498207878</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="8"/>
-        <v>8.8658508163280594</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43">
+        <v>9.4036548498207875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>16</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>17475</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>290216.608593749</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <f t="shared" si="6"/>
         <v>29.49210417571383</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <f t="shared" si="7"/>
-        <v>83.416267416429378</v>
-      </c>
-      <c r="H43">
+        <v>88.476312527141488</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="8"/>
-        <v>8.341626741642937</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44">
+        <v>8.8476312527141481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>17</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>76528</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>1270941.1514999899</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <f t="shared" si="6"/>
         <v>48.251055606402105</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <f t="shared" si="7"/>
-        <v>136.47459447478445</v>
-      </c>
-      <c r="H44">
+        <v>144.75316681920631</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="8"/>
-        <v>13.647459447478445</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45">
+        <v>14.475316681920631</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47">
         <v>18</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>39172</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>650550.21412499901</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <f t="shared" si="6"/>
         <v>38.597449984291785</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <f t="shared" si="7"/>
-        <v>109.1700744816053</v>
-      </c>
-      <c r="H45">
+        <v>115.79234995287536</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="8"/>
-        <v>10.917007448160529</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46">
+        <v>11.579234995287536</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>19</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>13455</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>223454.33296874899</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <f t="shared" si="6"/>
         <v>27.030947261067794</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <f t="shared" si="7"/>
-        <v>76.455064440787893</v>
-      </c>
-      <c r="H46">
+        <v>81.092841783203383</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="8"/>
-        <v>7.645506444078789</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47">
+        <v>8.1092841783203387</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>20</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>45218</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>750959.34806249896</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <f t="shared" si="6"/>
         <v>40.489009043396536</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <f t="shared" si="7"/>
-        <v>114.52021143243655</v>
-      </c>
-      <c r="H47">
+        <v>121.46702713018961</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="8"/>
-        <v>11.452021143243655</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49">
-        <f>AVERAGE(H28:H47)</f>
-        <v>11.438753727570237</v>
+        <v>12.146702713018961</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f>AVERAGE(H30:H49)</f>
+        <v>12.132630493631716</v>
       </c>
     </row>
   </sheetData>
